--- a/config/Feature_TestCases.xlsx
+++ b/config/Feature_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Naveen\experiment\nodejs\excel-processing\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E21C6-A62E-42AA-B89B-01DC19ABB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A18B25-64A3-4243-A4B2-A1E08A3D02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{861FAF85-C90D-4515-88B8-C2A3C7440D21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{861FAF85-C90D-4515-88B8-C2A3C7440D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Manage_P002</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -536,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62EBC09-4A6C-4273-B04F-19C5BDDA6C6F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -596,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -606,10 +612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1055CF-46BC-4B7A-B7E8-4F9BD041F6C4}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +674,30 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -678,10 +707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3B5E11-9F85-4F36-B1EE-44F5280F3793}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +769,27 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -752,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1C7210-DE3C-4774-9ABA-03E6C6A7B57F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
